--- a/biology/Médecine/Francesco_Maria_Nigrisoli/Francesco_Maria_Nigrisoli.xlsx
+++ b/biology/Médecine/Francesco_Maria_Nigrisoli/Francesco_Maria_Nigrisoli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Francesco Maria Nigrisoli est médecin italien né à Ferrare le 17 août 1648, et mort dans la même ville le 10 décembre 1727 (à 79 ans).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Francesco Maria Nigrisoli est le fils de Girolamo Nigrisoli, philosophe et médecin qui est mort en 1689 dans sa 69e année. Comme son père, il a été reçu docteur en médecine de l'université de Ferrare. Il est ensuite appelé à Comacchio comme premier médecin de la ville où il est resté pendant trois ans.
 De retour à Ferrare, il a été chargé de faire les dissections anatomiques , puis remplit successivement les chaires de professeur en médecine théorique et en médecine pratique de l'université de Ferrare. Les travaux de Dell'anatomia chirurgica delle glandole (1681 - 1682) et Febris china chinae expugnata (1687) sont liés à cette activité.
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dell'anatomia chirurgica delle glandole di Francesco Maria Gilio, da Pasaro, chirurgo primario di Commacho, Parte 1, Ferrare, 1681. Parte 2, Ferrare, 1682. Bien que le nom soit Gilio, il est bien de Nigrisoli.
 Ad anchoram sauciatorum Joan. Cornelii Weeber observationes a medico ferrariensi habitæ, Ferrare, 1687
